--- a/CounselTools/CounselTools/Template/綜合紀錄表輸入進度表樣版.xlsx
+++ b/CounselTools/CounselTools/Template/綜合紀錄表輸入進度表樣版.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Documents\ischool_github\Counsel_SystemV2\CounselTools\CounselTools\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="輔導資料填寫狀況" sheetId="1" r:id="rId1"/>
+    <sheet name="詳細資料" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +92,474 @@
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料:手機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料:宗教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料:血型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料:生理缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料:曾患特殊疾病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料:原住民血統</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>監護人資料:姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>監護人資料:性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>監護人資料:關係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>監護人資料:電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>監護人資料:地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:稱謂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:出生年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:存歿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:職業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">尊親屬資料:工作機構 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:職稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:教育程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:國籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊親屬資料:行動電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">兄弟姊妹資料:稱謂 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟姊妹資料:姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟姊妹資料:出生年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟姊妹資料:畢業學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟姊妹資料:備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:一上身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:一上體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:一下身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:一下體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:二上身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:二上體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:二下身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:二下體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:三上身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:三上體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:三下身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高及體重:三下體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:父母關係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:家庭氣氛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:父親管教方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:母親管教方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:居住環境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:本人住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:家庭經濟概況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:每星期零用錢(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭訊息:零用金是否足夠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習:最喜歡的學科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習:最困難的學科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習:特殊專長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習:休閒興趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習:樂器演奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學習:外語能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:一上班級幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:一上社團幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:一下班級幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:一下社團幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:二上班級幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:二上社團幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:二下班級幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:二下社團幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:三上班級幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:三上社團幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:三下班級幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幹部資訊:三下社團幹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我認識:個性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我認識:優點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我認識:需要改進</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我認識:填寫日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活感想:期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活感想:為達理想，所需要的努力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活感想:期望師長給幫助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活感想:填寫日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業後規劃:升學意願</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業後規劃:就業意願</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業後規劃:希望參加職業訓練種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業後規劃:希望參加職業訓練地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業後規劃:將來職業意願</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢業後規劃:將來就業地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:家中最了解我的人是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自傳:家中最了解我的人是_因為 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我在家中最怕的人是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我在家中最怕的人是_因為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:常指導我做功課的人是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:讀過且印象最深的課外讀物是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最喜歡的人是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最喜歡的人是_因為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最要好的朋友是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最要好的朋友是_因為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最喜歡做的事是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最喜歡做的事是_因為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最不喜歡做的事是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最不喜歡做的事是_因為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:國中時的學校生活是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最快樂的回憶是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最痛苦的回憶是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最足以描述自己的幾句話是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我覺得我的優點是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我覺得我的缺點是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最喜歡的國小（國中）老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:最喜歡的國小（國中）老師__因為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:小學（國中）老師或同學常說我是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:小學（國中）時我曾在班上登任過的職務有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我在小學（國中）得過的獎有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我覺得我自己的過去最滿意的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我排遣休閒時間的方法是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:我最難忘的一件事是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自傳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自我的心聲_一年級_我目前遇到最大的困難是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自我的心聲_一年級_我目前最需要的協助是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自我的心聲_二年級_我目前遇到最大的困難是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自我的心聲_二年級_我目前最需要的協助是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自我的心聲_三年級_我目前遇到最大的困難是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳:自我的心聲_三年級_我目前最需要的協助是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟姊妹資料:排行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -95,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +583,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +636,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -164,6 +651,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,7 +914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -539,4 +1029,469 @@
     <ignoredError sqref="B2:E2 B416:E65536 B6:E6 B3:E5 B7:E415 B1:E1 A416:A65536 A2 A3:A415 A65537:A1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DT1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.125" customWidth="1"/>
+    <col min="30" max="30" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="46" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="61" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="73" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="36" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="36" bestFit="1" customWidth="1"/>
+    <col min="86" max="88" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="36" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="36" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="52" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="52" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="52" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="49.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>